--- a/development/07-connections/M2.xlsx
+++ b/development/07-connections/M2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Graduation-project\design exel sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Graduation-project\development\07-connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>w</t>
   </si>
@@ -144,12 +144,93 @@
   <si>
     <t>T bolt</t>
   </si>
+  <si>
+    <t>flange</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>web thickness</t>
+  </si>
+  <si>
+    <t>flange thickness</t>
+  </si>
+  <si>
+    <t>web weld length</t>
+  </si>
+  <si>
+    <t>web weld thicnkess</t>
+  </si>
+  <si>
+    <t>flange weld thickness</t>
+  </si>
+  <si>
+    <t>flange upper weld length</t>
+  </si>
+  <si>
+    <t>flange lower weld length</t>
+  </si>
+  <si>
+    <t>A (axial stress)</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>cm 3</t>
+  </si>
+  <si>
+    <t>t/cm2</t>
+  </si>
+  <si>
+    <t>B (axial stress)</t>
+  </si>
+  <si>
+    <t>web (shear stress)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>B (combined stress)</t>
+  </si>
+  <si>
+    <t>allowable stress</t>
+  </si>
+  <si>
+    <t>steel ultimate stress</t>
+  </si>
+  <si>
+    <t>Flanges weld</t>
+  </si>
+  <si>
+    <t>web weld</t>
+  </si>
+  <si>
+    <t>welding</t>
+  </si>
+  <si>
+    <t>Prying force calculations</t>
+  </si>
+  <si>
+    <t>Plate inertia</t>
+  </si>
+  <si>
+    <t>straining actions</t>
+  </si>
+  <si>
+    <t>is safe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +323,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +400,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -283,14 +436,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,29 +464,78 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="4" builtinId="17"/>
@@ -356,20 +559,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104069</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>716536</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -382,8 +585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14119860" y="99060"/>
-          <a:ext cx="3467100" cy="5133269"/>
+          <a:off x="5029200" y="4282440"/>
+          <a:ext cx="2949196" cy="3756986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,529 +861,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="14" max="15" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7">
+    <row r="1" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="H1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="29">
+        <v>7.8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18">
+        <f>J7</f>
         <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="12">
-        <v>60</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="12">
-        <v>15350000000</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <f>E3-B2</f>
-        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="14">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4.59</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="I4" s="14">
+        <v>17620000000</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7">
         <v>2</v>
+      </c>
+      <c r="B5" s="15">
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
+        <v>4.59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12">
-        <v>425</v>
-      </c>
-      <c r="I5" s="12">
-        <f>$I$1*100000*H5/$I$2</f>
-        <v>0.16612377850162866</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="H7" s="11">
+        <v>445</v>
+      </c>
+      <c r="I7" s="16">
+        <f>$I$3*100000*H7/$I$4</f>
+        <v>0.11112372304199773</v>
+      </c>
+      <c r="J7" s="14">
         <v>10</v>
       </c>
-      <c r="K5" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="L5" s="12">
-        <f>(I5+I6)*J5*K5/2</f>
-        <v>16.519543973941367</v>
-      </c>
-      <c r="M5" s="12">
-        <f>L5/0.6</f>
-        <v>27.532573289902281</v>
-      </c>
-      <c r="N5" s="12">
-        <v>28.91</v>
-      </c>
-      <c r="O5" s="12">
-        <v>3</v>
-      </c>
-      <c r="P5" s="12">
-        <v>11.56</v>
-      </c>
-      <c r="Q5">
-        <f>O5*P5*(1-L5/N5)</f>
-        <v>14.863404184839618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="K7" s="14">
         <v>11</v>
       </c>
-      <c r="B6" s="7">
-        <v>28.91</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="H6" s="12">
-        <v>310</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" ref="I6:I11" si="0">$I$1*100000*H6/$I$2</f>
-        <v>0.12117263843648209</v>
-      </c>
-      <c r="J6" s="12">
-        <v>15</v>
-      </c>
-      <c r="K6" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="L6" s="12">
-        <f>(I6+I7)*J6*K6/2</f>
-        <v>14.621335504885995</v>
-      </c>
-      <c r="M6" s="12">
-        <f t="shared" ref="M6:M11" si="1">L6/0.6</f>
-        <v>24.368892508143325</v>
-      </c>
-      <c r="N6" s="12">
-        <v>28.91</v>
-      </c>
-      <c r="O6" s="12">
-        <v>2</v>
-      </c>
-      <c r="P6" s="12">
-        <v>11.56</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q11" si="2">O6*P6*(1-L6/N6)</f>
-        <v>11.426977624594805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="H7" s="12">
-        <v>215</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="0"/>
-        <v>8.4039087947882743E-2</v>
-      </c>
-      <c r="J7" s="12">
-        <v>15</v>
-      </c>
-      <c r="K7" s="12">
-        <v>8</v>
-      </c>
-      <c r="L7" s="12">
-        <f t="shared" ref="L7:L8" si="3">(I7+I8)*J7*K7/2</f>
-        <v>8.2084690553745929</v>
-      </c>
-      <c r="M7" s="12">
-        <f t="shared" si="1"/>
-        <v>13.680781758957655</v>
-      </c>
-      <c r="N7" s="12">
-        <v>15.43</v>
-      </c>
-      <c r="O7" s="12">
-        <v>2</v>
-      </c>
-      <c r="P7" s="12">
-        <v>6.17</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>5.775352680277221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L7" s="11">
+        <f>(I7+I8)*J7*K7/2</f>
+        <v>10.712826333711691</v>
+      </c>
+      <c r="M7" s="11">
+        <f>L7/0.6</f>
+        <v>17.854710556186152</v>
+      </c>
+      <c r="N7" s="14">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="O7" s="20" t="str">
+        <f>IF(M7&lt;N7, "pass", "not safe")</f>
+        <v>pass</v>
+      </c>
+      <c r="P7" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>7.63</v>
+      </c>
+      <c r="R7">
+        <f>P7*Q7*(1-L7/N7)</f>
+        <v>20.075954425716915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7">
-        <f>B9*B7</f>
-        <v>5.1638235772219643</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="18">
+        <f>N7</f>
+        <v>19.079999999999998</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="H8" s="12">
-        <v>135</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="11">
+        <v>335</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" ref="I8:I13" si="0">$I$3*100000*H8/$I$4</f>
+        <v>8.3654937570942112E-2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>15</v>
+      </c>
+      <c r="K8" s="14">
+        <v>9.25</v>
+      </c>
+      <c r="L8" s="11">
+        <f>(I8+I9)*J8*K8/2</f>
+        <v>10.004646708286041</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" ref="M8:M13" si="1">L8/0.6</f>
+        <v>16.674411180476735</v>
+      </c>
+      <c r="N8" s="14">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="O8" s="20" t="str">
+        <f t="shared" ref="O8:O13" si="2">IF(M8&lt;N8, "pass", "not safe")</f>
+        <v>pass</v>
+      </c>
+      <c r="P8" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>7.63</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R13" si="3">P8*Q8*(1-L8/N8)</f>
+        <v>14.516760087165096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="18">
+        <f>L7</f>
+        <v>10.712826333711691</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="H9" s="11">
+        <v>242.5</v>
+      </c>
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
-        <v>5.276872964169381E-2</v>
-      </c>
-      <c r="J8" s="12">
+        <v>6.0556186152099886E-2</v>
+      </c>
+      <c r="J9" s="14">
         <v>15</v>
       </c>
-      <c r="K8" s="12">
-        <v>13.5</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="K9" s="14">
+        <v>9.25</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" ref="L9:L10" si="4">(I9+I10)*J9*K9/2</f>
+        <v>6.7996949489216805</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="1"/>
+        <v>11.332824914869468</v>
+      </c>
+      <c r="N9" s="14">
+        <v>15.43</v>
+      </c>
+      <c r="O9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="P9" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>6.17</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="3"/>
-        <v>5.3428338762214986</v>
-      </c>
-      <c r="M8" s="12">
-        <f t="shared" si="1"/>
-        <v>8.9047231270358314</v>
-      </c>
-      <c r="N8" s="12">
-        <v>15.43</v>
-      </c>
-      <c r="O8" s="12">
-        <v>2</v>
-      </c>
-      <c r="P8" s="12">
-        <v>6.17</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>8.0671179499304397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <f>(  0.5  -   (  B1 * POWER(B5,4)  )  / (  30 * B2 * POWER(B3, 2)  * B4)   )   /   (  ( 3*B2 / (4*B3) ) * (B2 / ( 4 * B3 ) + 1 )  +  (  B1 * POWER(B5,4)  )  / (  30 * B2 * POWER(B3, 2)  * B4))</f>
-        <v>0.31295900468011906</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>15</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <f t="shared" ref="L9:L11" si="4">AVERAGE(I9:I10)*J9*K9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>13.804013523046851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B10" s="7">
-        <f>B8+B7</f>
-        <v>21.663823577221965</v>
+        <f>B11*B9</f>
+        <v>3.4277234510414076</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="D10" s="6"/>
+      <c r="H10" s="11">
+        <v>150</v>
+      </c>
+      <c r="I10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
+        <v>3.7457434733257661E-2</v>
+      </c>
+      <c r="J10" s="14">
         <v>15</v>
       </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
+      <c r="K10" s="14">
+        <v>15</v>
+      </c>
+      <c r="L10" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
+        <v>4.2139614074914871</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="e">
+        <v>7.0232690124858124</v>
+      </c>
+      <c r="N10" s="14">
+        <v>15.43</v>
+      </c>
+      <c r="O10" s="20" t="str">
         <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="P10" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>6.17</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>17.939846562742069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22">
+        <f>(  0.5  -   (  B3 * POWER(B7,4)  )  / (  30 * B4 * POWER(B5, 2)  * B6)   )   /   (  ( 3*B4 / (4*B5) ) * (B4 / ( 4 * B5 ) + 1 )  +  (  B3 * POWER(B7,4)  )  / (  30 * B4 * POWER(B5, 2)  * B6))</f>
+        <v>0.31996443741973724</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>15</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" ref="L11:L13" si="5">AVERAGE(I11:I12)*J11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>not safe</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7">
-        <f>B7/0.6</f>
-        <v>27.5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f>IF(B7/0.6 &gt; B6, "not pass", "pass")</f>
-        <v>pass</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>15</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
+    <row r="12" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="7">
-        <f>B10/0.8</f>
-        <v>27.079779471527456</v>
+        <f>B10+B9</f>
+        <v>14.140549784753098</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="str">
-        <f>IF(B10/0.8 &gt; B6, "not pass", "pass")</f>
+      <c r="D12" s="3"/>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>15</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>not safe</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <f>B9/0.6</f>
+        <v>17.854710556186152</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>IF(B9/0.6 &gt; B8, "not pass", "pass")</f>
         <v>pass</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J15" s="15" t="s">
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>15</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>not safe</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
+        <f>B12/0.8</f>
+        <v>17.675687230941371</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>IF(B12/0.8 &gt; B8, "not pass", "pass")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="J19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15">
-        <f>SUM(Q5:Q8)</f>
-        <v>40.132852439642086</v>
-      </c>
-      <c r="M15" s="14" t="s">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23">
+        <f>SUM(R7:R10)</f>
+        <v>66.336574598670921</v>
+      </c>
+      <c r="M19" s="24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="14"/>
-    </row>
+      <c r="N19" s="30" t="str">
+        <f>IF(L19&gt;I1,"pass","not safe")</f>
+        <v>pass</v>
+      </c>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="11">
+        <f>0.2*B21</f>
+        <v>1.04</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="J22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26">
+        <f>B33</f>
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="16">
+        <f>I1</f>
+        <v>7.8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="16">
+        <f>I3</f>
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="J24" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26">
+        <f>B30</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="14">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="14">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="13">
+        <f>B27-2</f>
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="13">
+        <f>B25</f>
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="13">
+        <f>B25-B28-2</f>
+        <v>17</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="11">
+        <f>POWER(B29,3)*B30/6+B31*B33*2*POWER(B27/2+B26, 2)+B33*B32*2*POWER(B27/2,2)</f>
+        <v>166958.25</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="11">
+        <f>B24*100*(B27/2+B33)/B34</f>
+        <v>0.89603239133136581</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f>IF(B35&lt;$B$22, "pass", "unsafe")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="11">
+        <f>B24*100*(B27/2)/B34</f>
+        <v>0.8565015505373349</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f>IF(B36&lt;$B$22, "pass", "unsafe")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="11">
+        <f>B23/(2*B30*B29)</f>
+        <v>6.19047619047619E-2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f>IF(B37&lt;$B$22, "pass", "unsafe")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="11">
+        <f>POWER(3*POWER(B37,2)+POWER(B36,2),0.5)</f>
+        <v>0.8631868307106606</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="8" t="str">
+        <f>IF(B38&lt;(1.1*$B$22), "pass", "unsafe")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
+  <mergeCells count="18">
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="J19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A19:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
